--- a/2-Electrical/0 - Development Drawings/1 - Main Board/2 - eeBOM/AssemblyBOM_forALLPCB.xlsx
+++ b/2-Electrical/0 - Development Drawings/1 - Main Board/2 - eeBOM/AssemblyBOM_forALLPCB.xlsx
@@ -897,9 +897,6 @@
     <t>I2C expander</t>
   </si>
   <si>
-    <t>PCA9555PW,112</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -997,6 +994,9 @@
   </si>
   <si>
     <t>Molex 105133-0001</t>
+  </si>
+  <si>
+    <t>PCA9555PW,118</t>
   </si>
 </sst>
 </file>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D165" sqref="D163:G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5638,7 +5638,7 @@
         <v>289</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="F164">
         <v>38.271450000000002</v>
@@ -5652,19 +5652,19 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>290</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D165" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E165" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="F165">
         <v>80.535496875000007</v>
@@ -5678,19 +5678,19 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C166" t="s">
         <v>202</v>
       </c>
       <c r="D166" t="s">
+        <v>292</v>
+      </c>
+      <c r="E166" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="F166">
         <v>88.035834374999993</v>
@@ -5704,19 +5704,19 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C167" t="s">
         <v>202</v>
       </c>
       <c r="D167" t="s">
+        <v>292</v>
+      </c>
+      <c r="E167" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="F167">
         <v>15.944850000000001</v>
@@ -5730,19 +5730,19 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C168" t="s">
         <v>202</v>
       </c>
       <c r="D168" t="s">
+        <v>292</v>
+      </c>
+      <c r="E168" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="F168">
         <v>63.665100000000002</v>
@@ -5756,19 +5756,19 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>297</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="C169" t="s">
         <v>202</v>
       </c>
       <c r="D169" t="s">
+        <v>299</v>
+      </c>
+      <c r="E169" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="F169">
         <v>35.039299999999997</v>
@@ -5782,17 +5782,17 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>301</v>
+      </c>
+      <c r="B170" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F170">
         <v>10.795</v>
@@ -5806,19 +5806,19 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>304</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="C171" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="D171" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="D171" s="9" t="s">
-        <v>308</v>
-      </c>
       <c r="E171" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F171">
         <v>5.7149999999999999</v>
@@ -5832,19 +5832,19 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>308</v>
+      </c>
+      <c r="B172" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="C172" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="D172" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>312</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F172">
         <v>24.358599999999999</v>
@@ -5858,19 +5858,19 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B173" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C173" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="D173" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>312</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F173">
         <v>42.259250000000002</v>
@@ -5884,19 +5884,19 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>313</v>
+      </c>
+      <c r="B174" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="C174" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="D174" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E174" s="13" t="s">
         <v>316</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>317</v>
       </c>
       <c r="F174">
         <v>36.169600000000003</v>
@@ -5910,19 +5910,19 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C175" t="s">
         <v>315</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
+        <v>314</v>
+      </c>
+      <c r="E175" s="13" t="s">
         <v>316</v>
-      </c>
-      <c r="D175" t="s">
-        <v>315</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>317</v>
       </c>
       <c r="F175">
         <v>18.008600000000001</v>
@@ -5936,19 +5936,19 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>318</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="C176" t="s">
         <v>320</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>321</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="F176">
         <v>84.128543750000006</v>
@@ -5980,51 +5980,51 @@
     <hyperlink ref="E35:E37" r:id="rId16" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW0603100KFKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSraqX7py72DYGW23emt3TZgQ%3D%3D"/>
     <hyperlink ref="E39:E41" r:id="rId17" display="https://www.mouser.com/ProductDetail/603-CC603KRX7R8BB104"/>
     <hyperlink ref="E42:E66" r:id="rId18" display="https://www.mouser.com/ProductDetail/603-CC603KRX7R8BB104"/>
-    <hyperlink ref="E67" r:id="rId19" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW060310K0JNEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrBr05dW3Gri4EedUE4k3xdQ%3D%3D"/>
-    <hyperlink ref="E95" r:id="rId20" display="https://www.mouser.com/ProductDetail/81-GRM188R61A106KE9J"/>
-    <hyperlink ref="E96:E103" r:id="rId21" display="https://www.mouser.com/ProductDetail/81-GRM188R61A106KE9J"/>
-    <hyperlink ref="E71" r:id="rId22" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KOA-Speer/RN73R1JTTD1002D25?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIEpQ3K4Kb95vbrfiJbdI8ig%3D%3D"/>
-    <hyperlink ref="E74" r:id="rId23" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KOA-Speer/RN73R1JTTD1002D25?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIEpQ3K4Kb95vbrfiJbdI8ig%3D%3D"/>
-    <hyperlink ref="E125" r:id="rId24" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18PG121SN1D?qs=sGAEpiMZZMtdyQheitOmRWLNemz3bbC1JO1DcIS3iy4%3D"/>
-    <hyperlink ref="B125" r:id="rId25" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18PG121SN1D?qs=sGAEpiMZZMtdyQheitOmRWLNemz3bbC1JO1DcIS3iy4%3D"/>
-    <hyperlink ref="E104" r:id="rId26" display="https://www.mouser.com/ProductDetail/81-GRM188R61E106KA3J"/>
-    <hyperlink ref="E105:E106" r:id="rId27" display="https://www.mouser.com/ProductDetail/81-GRM188R61E106KA3J"/>
-    <hyperlink ref="E123" r:id="rId28" display="https://www.mouser.com/ProductDetail/833-BC847A-TP"/>
-    <hyperlink ref="E124" r:id="rId29" display="https://www.mouser.com/ProductDetail/833-BC847A-TP"/>
-    <hyperlink ref="E110" r:id="rId30" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/United-Chemi-Con/EMZR250ARA221MF80G?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqZYz5q3TnWgoU%252BtPPG%2FA%252BpQ%3D%3D"/>
-    <hyperlink ref="E115" r:id="rId31" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Harwin/M50-3600542R?qs=sGAEpiMZZMs%252BGHln7q6pmyHs2%2FzFXI%252B8ML4%2FvggiFCQ%3D"/>
-    <hyperlink ref="E118" r:id="rId32" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Panasonic/ERJ-PB3D7322V?qs=sGAEpiMZZMu61qfTUdNhG3eCjCAbg%2FKZMUV3VPZDflqA9yPKMTVJAg%3D%3D"/>
-    <hyperlink ref="E117" r:id="rId33" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Panasonic/ERJ-PB3D4532V?qs=sGAEpiMZZMu61qfTUdNhG3eCjCAbg%2FKZobIku8tWjsckwJLr0qgB%252Bg%3D%3D"/>
-    <hyperlink ref="E122" r:id="rId34" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Omron-Electronics/B3F-3120?qs=sGAEpiMZZMsgGjVA3toVBLOYoGzF1EI%252B2Nefbt8SwS8%3D"/>
-    <hyperlink ref="B122" r:id="rId35" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Omron-Electronics/B3F-3120?qs=sGAEpiMZZMsgGjVA3toVBLOYoGzF1EI%252B2Nefbt8SwS8%3D"/>
-    <hyperlink ref="E107" r:id="rId36" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Yageo/RC0603FR-0712KL?qs=sGAEpiMZZMu61qfTUdNhG5eFuApKbqVdgfbTkB8L%252BsI%3D"/>
-    <hyperlink ref="E108" r:id="rId37" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Yageo/RC0603FR-0712KL?qs=sGAEpiMZZMu61qfTUdNhG5eFuApKbqVdgfbTkB8L%252BsI%3D"/>
-    <hyperlink ref="E114" r:id="rId38" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/CRGCQ0603F2K2?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIs1CxWEp0l64a1l0k5cAfSw%3D%3D"/>
-    <hyperlink ref="E113" r:id="rId39" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/CRGCQ0603F2K2?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIs1CxWEp0l64a1l0k5cAfSw%3D%3D"/>
-    <hyperlink ref="E109" r:id="rId40" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KEMET/C0603C102M5RACTU?qs=sGAEpiMZZMvsSlwiRhF8quIsB1QHp5lfzVgJ8s9yKto%3D"/>
-    <hyperlink ref="E111" r:id="rId41" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KEMET/C0402C220J5GAC7411?qs=sGAEpiMZZMvsSlwiRhF8qi01QES9zePE3QxtCw%252BtaU8%3D"/>
-    <hyperlink ref="E112" r:id="rId42" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KEMET/C0402C220J5GAC7411?qs=sGAEpiMZZMvsSlwiRhF8qi01QES9zePE3QxtCw%252BtaU8%3D"/>
-    <hyperlink ref="E116" r:id="rId43" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Epson-Timing/FC-135-327680KA-A3?qs=sGAEpiMZZMsBj6bBr9Q9aZLqXgWtLYAXgtkp1R7gwzo%3D"/>
-    <hyperlink ref="E144" r:id="rId44" display="https://www.mouser.com/ProductDetail/634-CP2101-GM"/>
-    <hyperlink ref="E148" r:id="rId45" display="https://www.mouser.com/ProductDetail/512-FDN306P"/>
-    <hyperlink ref="E149:E158" r:id="rId46" display="https://www.mouser.com/ProductDetail/512-FDN306P"/>
-    <hyperlink ref="E146" r:id="rId47" display="https://www.mouser.com/ProductDetail/200-CES10601TD"/>
-    <hyperlink ref="E145" r:id="rId48" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Espressif-Systems/ESP32-WROOM-32?qs=sGAEpiMZZMve4%2FbfQkoj%252BErywZNi%252BCNNpLVbrj2524g%3D"/>
-    <hyperlink ref="E147" r:id="rId49" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/TE-Connectivity-AMP/640456-2?qs=sGAEpiMZZMs%252BGHln7q6pm5E1Eb6qwPl2BxUqTDN3Uy8%3D"/>
-    <hyperlink ref="E163" r:id="rId50" display="https://www.mouser.com/ProductDetail/771-PCA9509DP-T"/>
-    <hyperlink ref="E159" r:id="rId51" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Samtec/HTMS-103-03-T-D-SM?qs=sGAEpiMZZMs%252BGHln7q6pm8Vn94ktop%2FJwkA9Cul8GAs51XmBHy%252BvZw%3D%3D"/>
-    <hyperlink ref="E161" r:id="rId52" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Lite-On/LTL2R3KGD-EM?qs=sGAEpiMZZMtmwHDZQCdlqY3QuPVQdrfivxVgVo2hFbg%3D"/>
-    <hyperlink ref="B161" r:id="rId53" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Lite-On/LTL2R3KGD-EM?qs=sGAEpiMZZMtmwHDZQCdlqY3QuPVQdrfivxVgVo2hFbg%3D"/>
-    <hyperlink ref="E162" r:id="rId54" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Texas-Instruments/P82B715DR?qs=sGAEpiMZZMvh4wEfREVcMetP3USUg3bc"/>
-    <hyperlink ref="E164" r:id="rId55" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/NXP-Semiconductors/PCA9555PW112?qs=sGAEpiMZZMuFG5L82Zqpsk%252BwjZZ2KBJ9EgF1hfNePOM%3D"/>
-    <hyperlink ref="E165" r:id="rId56" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
-    <hyperlink ref="E166" r:id="rId57" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
-    <hyperlink ref="E167" r:id="rId58" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
-    <hyperlink ref="E168" r:id="rId59" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
-    <hyperlink ref="E170" r:id="rId60" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/CUI/PJ-031C?qs=sGAEpiMZZMtnOp%252BbbqA009lE0K0K%252BPZGcznN0OxEtNpNltqiE7by2Q%3D%3D"/>
-    <hyperlink ref="E176" r:id="rId61" display="https://www.mouser.com/ProductDetail/538-105133-0001"/>
-    <hyperlink ref="E174" r:id="rId62" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Laird-Performance-Materials/TYS60451R5N-10?qs=sGAEpiMZZMtqO%252BWUGLBzeMAbACM12o3AvZUo4rhX96g%3D"/>
-    <hyperlink ref="E175" r:id="rId63" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Laird-Performance-Materials/TYS60451R5N-10?qs=sGAEpiMZZMtqO%252BWUGLBzeMAbACM12o3AvZUo4rhX96g%3D"/>
+    <hyperlink ref="E95" r:id="rId19" display="https://www.mouser.com/ProductDetail/81-GRM188R61A106KE9J"/>
+    <hyperlink ref="E96:E103" r:id="rId20" display="https://www.mouser.com/ProductDetail/81-GRM188R61A106KE9J"/>
+    <hyperlink ref="E71" r:id="rId21" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KOA-Speer/RN73R1JTTD1002D25?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIEpQ3K4Kb95vbrfiJbdI8ig%3D%3D"/>
+    <hyperlink ref="E74" r:id="rId22" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KOA-Speer/RN73R1JTTD1002D25?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIEpQ3K4Kb95vbrfiJbdI8ig%3D%3D"/>
+    <hyperlink ref="E125" r:id="rId23" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18PG121SN1D?qs=sGAEpiMZZMtdyQheitOmRWLNemz3bbC1JO1DcIS3iy4%3D"/>
+    <hyperlink ref="B125" r:id="rId24" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18PG121SN1D?qs=sGAEpiMZZMtdyQheitOmRWLNemz3bbC1JO1DcIS3iy4%3D"/>
+    <hyperlink ref="E104" r:id="rId25" display="https://www.mouser.com/ProductDetail/81-GRM188R61E106KA3J"/>
+    <hyperlink ref="E105:E106" r:id="rId26" display="https://www.mouser.com/ProductDetail/81-GRM188R61E106KA3J"/>
+    <hyperlink ref="E123" r:id="rId27" display="https://www.mouser.com/ProductDetail/833-BC847A-TP"/>
+    <hyperlink ref="E124" r:id="rId28" display="https://www.mouser.com/ProductDetail/833-BC847A-TP"/>
+    <hyperlink ref="E110" r:id="rId29" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/United-Chemi-Con/EMZR250ARA221MF80G?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqZYz5q3TnWgoU%252BtPPG%2FA%252BpQ%3D%3D"/>
+    <hyperlink ref="E115" r:id="rId30" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Harwin/M50-3600542R?qs=sGAEpiMZZMs%252BGHln7q6pmyHs2%2FzFXI%252B8ML4%2FvggiFCQ%3D"/>
+    <hyperlink ref="E118" r:id="rId31" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Panasonic/ERJ-PB3D7322V?qs=sGAEpiMZZMu61qfTUdNhG3eCjCAbg%2FKZMUV3VPZDflqA9yPKMTVJAg%3D%3D"/>
+    <hyperlink ref="E117" r:id="rId32" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Panasonic/ERJ-PB3D4532V?qs=sGAEpiMZZMu61qfTUdNhG3eCjCAbg%2FKZobIku8tWjsckwJLr0qgB%252Bg%3D%3D"/>
+    <hyperlink ref="E122" r:id="rId33" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Omron-Electronics/B3F-3120?qs=sGAEpiMZZMsgGjVA3toVBLOYoGzF1EI%252B2Nefbt8SwS8%3D"/>
+    <hyperlink ref="B122" r:id="rId34" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Omron-Electronics/B3F-3120?qs=sGAEpiMZZMsgGjVA3toVBLOYoGzF1EI%252B2Nefbt8SwS8%3D"/>
+    <hyperlink ref="E107" r:id="rId35" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Yageo/RC0603FR-0712KL?qs=sGAEpiMZZMu61qfTUdNhG5eFuApKbqVdgfbTkB8L%252BsI%3D"/>
+    <hyperlink ref="E108" r:id="rId36" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Yageo/RC0603FR-0712KL?qs=sGAEpiMZZMu61qfTUdNhG5eFuApKbqVdgfbTkB8L%252BsI%3D"/>
+    <hyperlink ref="E114" r:id="rId37" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/CRGCQ0603F2K2?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIs1CxWEp0l64a1l0k5cAfSw%3D%3D"/>
+    <hyperlink ref="E113" r:id="rId38" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/CRGCQ0603F2K2?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIs1CxWEp0l64a1l0k5cAfSw%3D%3D"/>
+    <hyperlink ref="E109" r:id="rId39" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KEMET/C0603C102M5RACTU?qs=sGAEpiMZZMvsSlwiRhF8quIsB1QHp5lfzVgJ8s9yKto%3D"/>
+    <hyperlink ref="E111" r:id="rId40" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KEMET/C0402C220J5GAC7411?qs=sGAEpiMZZMvsSlwiRhF8qi01QES9zePE3QxtCw%252BtaU8%3D"/>
+    <hyperlink ref="E112" r:id="rId41" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KEMET/C0402C220J5GAC7411?qs=sGAEpiMZZMvsSlwiRhF8qi01QES9zePE3QxtCw%252BtaU8%3D"/>
+    <hyperlink ref="E116" r:id="rId42" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Epson-Timing/FC-135-327680KA-A3?qs=sGAEpiMZZMsBj6bBr9Q9aZLqXgWtLYAXgtkp1R7gwzo%3D"/>
+    <hyperlink ref="E144" r:id="rId43" display="https://www.mouser.com/ProductDetail/634-CP2101-GM"/>
+    <hyperlink ref="E148" r:id="rId44" display="https://www.mouser.com/ProductDetail/512-FDN306P"/>
+    <hyperlink ref="E149:E158" r:id="rId45" display="https://www.mouser.com/ProductDetail/512-FDN306P"/>
+    <hyperlink ref="E146" r:id="rId46" display="https://www.mouser.com/ProductDetail/200-CES10601TD"/>
+    <hyperlink ref="E145" r:id="rId47" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Espressif-Systems/ESP32-WROOM-32?qs=sGAEpiMZZMve4%2FbfQkoj%252BErywZNi%252BCNNpLVbrj2524g%3D"/>
+    <hyperlink ref="E147" r:id="rId48" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/TE-Connectivity-AMP/640456-2?qs=sGAEpiMZZMs%252BGHln7q6pm5E1Eb6qwPl2BxUqTDN3Uy8%3D"/>
+    <hyperlink ref="E163" r:id="rId49" display="https://www.mouser.com/ProductDetail/771-PCA9509DP-T"/>
+    <hyperlink ref="E159" r:id="rId50" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Samtec/HTMS-103-03-T-D-SM?qs=sGAEpiMZZMs%252BGHln7q6pm8Vn94ktop%2FJwkA9Cul8GAs51XmBHy%252BvZw%3D%3D"/>
+    <hyperlink ref="E161" r:id="rId51" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Lite-On/LTL2R3KGD-EM?qs=sGAEpiMZZMtmwHDZQCdlqY3QuPVQdrfivxVgVo2hFbg%3D"/>
+    <hyperlink ref="B161" r:id="rId52" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Lite-On/LTL2R3KGD-EM?qs=sGAEpiMZZMtmwHDZQCdlqY3QuPVQdrfivxVgVo2hFbg%3D"/>
+    <hyperlink ref="E162" r:id="rId53" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Texas-Instruments/P82B715DR?qs=sGAEpiMZZMvh4wEfREVcMetP3USUg3bc"/>
+    <hyperlink ref="E164" r:id="rId54" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/NXP-Semiconductors/PCA9555PW112?qs=sGAEpiMZZMuFG5L82Zqpsk%252BwjZZ2KBJ9EgF1hfNePOM%3D"/>
+    <hyperlink ref="E165" r:id="rId55" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
+    <hyperlink ref="E166" r:id="rId56" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
+    <hyperlink ref="E167" r:id="rId57" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
+    <hyperlink ref="E168" r:id="rId58" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
+    <hyperlink ref="E170" r:id="rId59" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/CUI/PJ-031C?qs=sGAEpiMZZMtnOp%252BbbqA009lE0K0K%252BPZGcznN0OxEtNpNltqiE7by2Q%3D%3D"/>
+    <hyperlink ref="E176" r:id="rId60" display="https://www.mouser.com/ProductDetail/538-105133-0001"/>
+    <hyperlink ref="E174" r:id="rId61" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Laird-Performance-Materials/TYS60451R5N-10?qs=sGAEpiMZZMtqO%252BWUGLBzeMAbACM12o3AvZUo4rhX96g%3D"/>
+    <hyperlink ref="E175" r:id="rId62" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Laird-Performance-Materials/TYS60451R5N-10?qs=sGAEpiMZZMtqO%252BWUGLBzeMAbACM12o3AvZUo4rhX96g%3D"/>
+    <hyperlink ref="E67" r:id="rId63" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW060310K0JNEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrBr05dW3Gri4EedUE4k3xdQ%3D%3D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
